--- a/fhir/ValueSet-ehealth-usage-context-type.xlsx
+++ b/fhir/ValueSet-ehealth-usage-context-type.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-usage-context-type.xlsx
+++ b/fhir/ValueSet-ehealth-usage-context-type.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -85,7 +85,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>eHealth Usage Context types.</t>
+    <t xml:space="preserve">The following table supersedes the expansion table below for the following codes:
+| Code                | System                                                                                     | Display           | Definition                                                                                                                                                                                   |
+|---------------------|--------------------------------------------------------------------------------------------|-------------------|----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------|
+| focus               | http://terminology.hl7.org/CodeSystem/usage-context-type                                    | Clinical Focus    | The clinical concept(s) addressed by the artifact/element. For example, disease, diagnostic test interpretation, medication ordering as in http://ehealth.sundhed.dk/vs/conditions                                                |
+| program             | http://terminology.hl7.org/CodeSystem/usage-context-type                                    | Program           | A program/project of work for which this artifact/element is applicable. http://ehealth.sundhed.dk/vs/ehealth-program                                                                                                         |
+| activity            | http://ehealth.sundhed.dk/cs/ehealth-usage-context-type                                    | Activity Type     | The type of activity in which it is relevant to use a module/element having this use context (see http://hl7.org/fhir/metadatatypes.html#UsageContext). For this context type, the value should be a code taken from the http://ehealth.sundhed.dk/vs/activitydefinition-code value set. |
+| supports            | http://ehealth.sundhed.dk/cs/ehealth-usage-context-type                                    | Supports          | The type of activity supported by a module/element having this use context (see http://hl7.org/fhir/metadatatypes.html#UsageContext). For this context type, the value should be a code taken from the http://ehealth.sundhed.dk/vs/activitydefinition-code value set. |
+| range               | http://ehealth.sundhed.dk/cs/ehealth-usage-context-type                                    | Range             | The type of reference range with which it is relevant to use a module/element having this use context (see http://hl7.org/fhir/metadatatypes.html#UsageContext). For this context type, the value should be a code taken from the http://ehealth.sundhed.dk/vs/reference-range-type value set. |
+| questionnaire-related | http://ehealth.sundhed.dk/cs/ehealth-usage-context-type                                    | Questionnaire Related | The type of questionnaire element with which it is relevant to use a coded values/id registries having this use context (see http://hl7.org/fhir/metadatatypes.html#UsageContext). For this context type, the value should be a code taken from the http://ehealth.sundhed.dk/vs/questionnaire-elements value set. |
+</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/fhir/ValueSet-ehealth-usage-context-type.xlsx
+++ b/fhir/ValueSet-ehealth-usage-context-type.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-usage-context-type.xlsx
+++ b/fhir/ValueSet-ehealth-usage-context-type.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-usage-context-type.xlsx
+++ b/fhir/ValueSet-ehealth-usage-context-type.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-usage-context-type.xlsx
+++ b/fhir/ValueSet-ehealth-usage-context-type.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-usage-context-type.xlsx
+++ b/fhir/ValueSet-ehealth-usage-context-type.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-usage-context-type.xlsx
+++ b/fhir/ValueSet-ehealth-usage-context-type.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-usage-context-type.xlsx
+++ b/fhir/ValueSet-ehealth-usage-context-type.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-usage-context-type.xlsx
+++ b/fhir/ValueSet-ehealth-usage-context-type.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
